--- a/data/trans_orig/P44AS3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44AS3-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E316E9A2-92BD-41AC-BD00-9453539C8016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0120970B-9856-479C-B15C-0E9E28E57D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{384A5565-FF36-44A2-A298-A9BBB2FC0790}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAB07229-E6C5-413D-9D8F-966470DE6A2E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -256,25 +256,25 @@
     <t>12,82%</t>
   </si>
   <si>
-    <t>52,38%</t>
+    <t>54,81%</t>
   </si>
   <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>34,92%</t>
+    <t>42,04%</t>
   </si>
   <si>
     <t>87,18%</t>
   </si>
   <si>
-    <t>47,62%</t>
+    <t>45,19%</t>
   </si>
   <si>
     <t>91,67%</t>
   </si>
   <si>
-    <t>65,08%</t>
+    <t>57,96%</t>
   </si>
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 3 en 2023 (Tasa respuesta: 0,64%)</t>
@@ -346,13 +346,13 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>11,69%</t>
+    <t>13,09%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>2,83%</t>
+    <t>2,74%</t>
   </si>
   <si>
     <t>93,43%</t>
@@ -361,13 +361,13 @@
     <t>97,81%</t>
   </si>
   <si>
-    <t>88,31%</t>
+    <t>86,91%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>97,17%</t>
+    <t>97,26%</t>
   </si>
 </sst>
 </file>
@@ -779,7 +779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93512F65-1175-4DCC-B996-31974F26C9DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A56F331-CA25-43C8-A9D3-321013ABC76C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1818,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA51C55-A401-4C93-8F24-3B06B61DC55E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64785E3-D4C6-499E-B54C-4AD0F3876134}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2845,7 +2845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FEBB29-BF7F-48AF-AEFA-035CF52CF3BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C62BF4-772F-4B67-99E4-EE03E1CBCAB4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P44AS3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P44AS3-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0120970B-9856-479C-B15C-0E9E28E57D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47295D4D-1691-44FF-A1B7-1BE534EADAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAB07229-E6C5-413D-9D8F-966470DE6A2E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EA22DA2B-5440-48C5-943E-3E4A0B3F1702}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otras</t>
@@ -79,7 +79,7 @@
     <t>Endoscopia (Colonoscopia/Sigmoidoscopia/Rectoscopia)</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -100,7 +100,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>67,43%</t>
@@ -115,7 +115,7 @@
     <t>49,68%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>50,66%</t>
@@ -148,7 +148,7 @@
     <t>25,68%</t>
   </si>
   <si>
-    <t>76,22%</t>
+    <t>90,32%</t>
   </si>
   <si>
     <t>50,44%</t>
@@ -157,13 +157,13 @@
     <t>34,42%</t>
   </si>
   <si>
-    <t>84,03%</t>
+    <t>84,21%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>23,78%</t>
+    <t>9,68%</t>
   </si>
   <si>
     <t>49,56%</t>
@@ -172,61 +172,61 @@
     <t>65,58%</t>
   </si>
   <si>
-    <t>15,97%</t>
+    <t>15,79%</t>
   </si>
   <si>
     <t>29,36%</t>
   </si>
   <si>
-    <t>72,22%</t>
+    <t>75,77%</t>
   </si>
   <si>
     <t>33,34%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
   </si>
   <si>
     <t>31,63%</t>
   </si>
   <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
   </si>
   <si>
     <t>70,64%</t>
   </si>
   <si>
-    <t>27,78%</t>
+    <t>24,23%</t>
   </si>
   <si>
     <t>66,66%</t>
   </si>
   <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>68,37%</t>
   </si>
   <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 3 en 2015 (Tasa respuesta: 0,18%)</t>
+    <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 3 en 2016 (Tasa respuesta: 0,18%)</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -256,25 +256,25 @@
     <t>12,82%</t>
   </si>
   <si>
-    <t>54,81%</t>
+    <t>64,67%</t>
   </si>
   <si>
     <t>8,33%</t>
   </si>
   <si>
-    <t>42,04%</t>
+    <t>34,24%</t>
   </si>
   <si>
     <t>87,18%</t>
   </si>
   <si>
-    <t>45,19%</t>
+    <t>35,33%</t>
   </si>
   <si>
     <t>91,67%</t>
   </si>
   <si>
-    <t>57,96%</t>
+    <t>65,76%</t>
   </si>
   <si>
     <t>Población según el tipo de prueba que le han realizado para detectarle el Cáncer de colon / respuesta 3 en 2023 (Tasa respuesta: 0,64%)</t>
@@ -779,7 +779,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A56F331-CA25-43C8-A9D3-321013ABC76C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C7A41C-06BE-4FD1-A13D-551DC559211D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1818,7 +1818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64785E3-D4C6-499E-B54C-4AD0F3876134}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72A6457F-81F1-4713-9EFF-25023DC36FB4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2845,7 +2845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C62BF4-772F-4B67-99E4-EE03E1CBCAB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025AE6D9-F4C9-4A86-852D-3E76B3844D3B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
